--- a/pdtest1.xlsx
+++ b/pdtest1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phe\Documents\tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phe\Documents\tech\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E32339-B6BC-4D3B-8402-1287EBFF040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB00D0B-BB0A-4B7A-A740-C9300EFEDB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14610" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pdtest1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>pb1</t>
   </si>
@@ -43,9 +43,6 @@
     <t>p2-t1</t>
   </si>
   <si>
-    <t>read csv</t>
-  </si>
-  <si>
     <t>create list</t>
   </si>
   <si>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,10 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -943,9 +942,6 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3">
         <v>4</v>
       </c>
@@ -961,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -975,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -992,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>3</v>

--- a/pdtest1.xlsx
+++ b/pdtest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phe\Documents\tech\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB00D0B-BB0A-4B7A-A740-C9300EFEDB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F756970-E068-4824-9294-2A0E1575C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14610" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20850" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
